--- a/src/main/resources/excelmodel/complex.xlsx
+++ b/src/main/resources/excelmodel/complex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Easy-excel 简单模版</t>
   </si>
@@ -52,12 +52,6 @@
   <si>
     <t>CHN</t>
   </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>体重</t>
-  </si>
 </sst>
 </file>
 
@@ -65,9 +59,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,6 +80,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -102,6 +103,98 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,70 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,44 +227,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -297,19 +291,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,151 +393,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,8 +476,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,42 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +502,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,161 +544,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,74 +1079,74 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="3" customWidth="1"/>
-    <col min="3" max="4" width="19.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>15811133322</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>40010</v>
       </c>
     </row>
@@ -1170,37 +1162,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2">
-        <v>70</v>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15811133322</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7">
+        <v>40010</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
